--- a/DataSheets/registered_course.xlsx
+++ b/DataSheets/registered_course.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Project_REDSight_DBMS_GROUP_1\DataSheets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp\htdocs\Project_REDSight_DBMS_GROUP_1\DataSheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{017857B5-C2DF-4D66-AEEB-C36D27D3F88F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FC661F8-1624-404B-B14C-88AD49F7CB5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{FC4BD85A-2EB6-4FD9-82DF-080F8004B9B1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{FC4BD85A-2EB6-4FD9-82DF-080F8004B9B1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -440,7 +440,7 @@
   <dimension ref="A1:C56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="33.7109375" defaultRowHeight="28.5" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/DataSheets/registered_course.xlsx
+++ b/DataSheets/registered_course.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp\htdocs\Project_REDSight_DBMS_GROUP_1\DataSheets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Project_REDSight_DBMS_GROUP_1\DataSheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FC661F8-1624-404B-B14C-88AD49F7CB5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68380B67-B6C2-4EAB-A585-9D9E7605C5FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{FC4BD85A-2EB6-4FD9-82DF-080F8004B9B1}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="6">
   <si>
     <t>StudentID</t>
   </si>
@@ -47,20 +47,20 @@
     <t>Date</t>
   </si>
   <si>
-    <t>21/5/2020</t>
+    <t>20/1/2020</t>
   </si>
   <si>
-    <t>16/10/2020</t>
+    <t>20/5/2020</t>
+  </si>
+  <si>
+    <t>20/10/2020</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
-  </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -69,16 +69,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Biome"/>
+      <sz val="8"/>
+      <name val="Calibri"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Biome"/>
-      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -101,22 +95,136 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="13">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -437,639 +545,540 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9AC4521-75E8-4DED-B426-CB5A0F3C5E1C}">
-  <dimension ref="A1:C56"/>
+  <dimension ref="A1:C45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="33.7109375" defaultRowHeight="28.5" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="33.7109375" style="3"/>
+    <col min="1" max="16384" width="33.7109375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>2022001</v>
-      </c>
-      <c r="B2" s="3">
+        <v>2020977</v>
+      </c>
+      <c r="B2" s="1">
         <v>20200001</v>
       </c>
-      <c r="C2" s="2">
-        <v>43831</v>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>2022002</v>
-      </c>
-      <c r="B3" s="3">
+        <v>2030187</v>
+      </c>
+      <c r="B3" s="1">
         <v>20200002</v>
       </c>
-      <c r="C3" s="2">
-        <v>43831</v>
+      <c r="C3" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>2022003</v>
-      </c>
-      <c r="B4" s="3">
+        <v>2030197</v>
+      </c>
+      <c r="B4" s="1">
         <v>20200003</v>
       </c>
-      <c r="C4" s="2">
-        <v>43831</v>
+      <c r="C4" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>2022011</v>
-      </c>
-      <c r="B5" s="3">
+        <v>2030207</v>
+      </c>
+      <c r="B5" s="1">
         <v>20200004</v>
       </c>
-      <c r="C5" s="2">
-        <v>43831</v>
+      <c r="C5" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>2022012</v>
-      </c>
-      <c r="B6" s="3">
+        <v>2030217</v>
+      </c>
+      <c r="B6" s="1">
         <v>20200005</v>
       </c>
-      <c r="C6" s="2">
-        <v>43831</v>
+      <c r="C6" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>2022016</v>
-      </c>
-      <c r="B7" s="3">
+        <v>2022040</v>
+      </c>
+      <c r="B7" s="1">
         <v>20200006</v>
       </c>
-      <c r="C7" s="2">
-        <v>43831</v>
+      <c r="C7" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>2022017</v>
-      </c>
-      <c r="B8" s="3">
+        <v>2030117</v>
+      </c>
+      <c r="B8" s="1">
         <v>20200007</v>
       </c>
-      <c r="C8" s="2">
-        <v>43831</v>
+      <c r="C8" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>2022022</v>
-      </c>
-      <c r="B9" s="3">
+        <v>2020977</v>
+      </c>
+      <c r="B9" s="1">
         <v>20200008</v>
       </c>
-      <c r="C9" s="2">
-        <v>43831</v>
+      <c r="C9" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>2022025</v>
-      </c>
-      <c r="B10" s="3">
+        <v>2030187</v>
+      </c>
+      <c r="B10" s="1">
         <v>20200009</v>
       </c>
-      <c r="C10" s="2">
-        <v>43831</v>
+      <c r="C10" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>2022026</v>
-      </c>
-      <c r="B11" s="3">
+        <v>2030197</v>
+      </c>
+      <c r="B11" s="1">
         <v>20200010</v>
       </c>
-      <c r="C11" s="2">
-        <v>43831</v>
+      <c r="C11" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>2022027</v>
-      </c>
-      <c r="B12" s="3">
+        <v>2030207</v>
+      </c>
+      <c r="B12" s="1">
         <v>20200011</v>
       </c>
-      <c r="C12" s="2">
-        <v>43831</v>
+      <c r="C12" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>2022032</v>
-      </c>
-      <c r="B13" s="3">
+        <v>2030217</v>
+      </c>
+      <c r="B13" s="1">
         <v>20200012</v>
       </c>
-      <c r="C13" s="2">
-        <v>43831</v>
+      <c r="C13" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>2022033</v>
-      </c>
-      <c r="B14" s="3">
+        <v>2022040</v>
+      </c>
+      <c r="B14" s="1">
         <v>20200013</v>
       </c>
-      <c r="C14" s="2">
-        <v>43831</v>
+      <c r="C14" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>2022037</v>
-      </c>
-      <c r="B15" s="3">
+        <v>2030117</v>
+      </c>
+      <c r="B15" s="1">
         <v>20200014</v>
       </c>
-      <c r="C15" s="2">
-        <v>43831</v>
+      <c r="C15" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>2022040</v>
-      </c>
-      <c r="B16" s="3">
+        <v>2030127</v>
+      </c>
+      <c r="B16" s="1">
         <v>20200015</v>
       </c>
-      <c r="C16" s="2">
-        <v>43831</v>
+      <c r="C16" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>2022044</v>
-      </c>
-      <c r="B17" s="3">
+        <v>2030237</v>
+      </c>
+      <c r="B17" s="1">
         <v>20200016</v>
       </c>
-      <c r="C17" s="2">
-        <v>43831</v>
+      <c r="C17" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>2022049</v>
-      </c>
-      <c r="B18" s="3">
+        <v>2030077</v>
+      </c>
+      <c r="B18" s="1">
         <v>20200017</v>
       </c>
-      <c r="C18" s="2">
-        <v>43831</v>
+      <c r="C18" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>2020977</v>
-      </c>
-      <c r="B19" s="3">
+        <v>2030157</v>
+      </c>
+      <c r="B19" s="1">
         <v>20200018</v>
       </c>
-      <c r="C19" s="2">
-        <v>43831</v>
+      <c r="C19" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>2022004</v>
-      </c>
-      <c r="B20" s="3">
+        <v>2030107</v>
+      </c>
+      <c r="B20" s="1">
         <v>20200019</v>
       </c>
-      <c r="C20" s="2" t="s">
-        <v>3</v>
+      <c r="C20" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>2022005</v>
-      </c>
-      <c r="B21" s="3">
+        <v>2030177</v>
+      </c>
+      <c r="B21" s="1">
         <v>20200020</v>
       </c>
-      <c r="C21" s="2" t="s">
-        <v>3</v>
+      <c r="C21" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>2022006</v>
-      </c>
-      <c r="B22" s="3">
+        <v>2022050</v>
+      </c>
+      <c r="B22" s="1">
         <v>20200021</v>
       </c>
-      <c r="C22" s="2" t="s">
-        <v>3</v>
+      <c r="C22" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>2022013</v>
-      </c>
-      <c r="B23" s="3">
+        <v>2020977</v>
+      </c>
+      <c r="B23" s="1">
         <v>20200022</v>
       </c>
-      <c r="C23" s="2" t="s">
-        <v>3</v>
+      <c r="C23" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>2022023</v>
-      </c>
-      <c r="B24" s="3">
+        <v>2030187</v>
+      </c>
+      <c r="B24" s="1">
         <v>20200023</v>
       </c>
-      <c r="C24" s="2" t="s">
-        <v>3</v>
+      <c r="C24" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>2022028</v>
-      </c>
-      <c r="B25" s="3">
+        <v>2030197</v>
+      </c>
+      <c r="B25" s="1">
         <v>20200024</v>
       </c>
-      <c r="C25" s="2" t="s">
-        <v>3</v>
+      <c r="C25" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>2022029</v>
-      </c>
-      <c r="B26" s="3">
+        <v>2030207</v>
+      </c>
+      <c r="B26" s="1">
         <v>20200025</v>
       </c>
-      <c r="C26" s="2" t="s">
-        <v>3</v>
+      <c r="C26" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>2022034</v>
-      </c>
-      <c r="B27" s="3">
+        <v>2030217</v>
+      </c>
+      <c r="B27" s="1">
         <v>20200026</v>
       </c>
-      <c r="C27" s="2" t="s">
-        <v>3</v>
+      <c r="C27" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <v>2022039</v>
-      </c>
-      <c r="B28" s="3">
+        <v>2022040</v>
+      </c>
+      <c r="B28" s="1">
         <v>20200027</v>
       </c>
-      <c r="C28" s="2" t="s">
-        <v>3</v>
+      <c r="C28" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <v>2022043</v>
-      </c>
-      <c r="B29" s="3">
+        <v>2030117</v>
+      </c>
+      <c r="B29" s="1">
         <v>20200028</v>
       </c>
-      <c r="C29" s="2" t="s">
-        <v>3</v>
+      <c r="C29" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <v>2022046</v>
-      </c>
-      <c r="B30" s="3">
+        <v>2030127</v>
+      </c>
+      <c r="B30" s="1">
         <v>20200029</v>
       </c>
-      <c r="C30" s="2" t="s">
-        <v>3</v>
+      <c r="C30" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
-        <v>2020975</v>
-      </c>
-      <c r="B31" s="3">
+        <v>2030237</v>
+      </c>
+      <c r="B31" s="1">
         <v>20200030</v>
       </c>
-      <c r="C31" s="2" t="s">
-        <v>3</v>
+      <c r="C31" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <v>2020600</v>
-      </c>
-      <c r="B32" s="3">
+        <v>2030077</v>
+      </c>
+      <c r="B32" s="1">
         <v>20200031</v>
       </c>
-      <c r="C32" s="2" t="s">
-        <v>3</v>
+      <c r="C32" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <v>2022007</v>
-      </c>
-      <c r="B33" s="3">
+        <v>2030157</v>
+      </c>
+      <c r="B33" s="1">
         <v>20200032</v>
       </c>
-      <c r="C33" s="2" t="s">
-        <v>4</v>
+      <c r="C33" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
-        <v>2022008</v>
-      </c>
-      <c r="B34" s="3">
+        <v>2030107</v>
+      </c>
+      <c r="B34" s="1">
         <v>20200033</v>
       </c>
-      <c r="C34" s="2" t="s">
-        <v>4</v>
+      <c r="C34" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
-        <v>2022009</v>
-      </c>
-      <c r="B35" s="3">
+        <v>2030177</v>
+      </c>
+      <c r="B35" s="1">
         <v>20200034</v>
       </c>
-      <c r="C35" s="2" t="s">
-        <v>4</v>
+      <c r="C35" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
-        <v>2022010</v>
-      </c>
-      <c r="B36" s="3">
+        <v>2022050</v>
+      </c>
+      <c r="B36" s="1">
         <v>20200035</v>
       </c>
-      <c r="C36" s="2" t="s">
-        <v>4</v>
+      <c r="C36" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
-        <v>2022014</v>
-      </c>
-      <c r="B37" s="3">
+        <v>2030137</v>
+      </c>
+      <c r="B37" s="1">
         <v>20200036</v>
       </c>
-      <c r="C37" s="2" t="s">
-        <v>4</v>
+      <c r="C37" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
-        <v>2022015</v>
-      </c>
-      <c r="B38" s="3">
+        <v>2022010</v>
+      </c>
+      <c r="B38" s="1">
         <v>20200037</v>
       </c>
-      <c r="C38" s="2" t="s">
-        <v>4</v>
+      <c r="C38" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
-        <v>2022018</v>
-      </c>
-      <c r="B39" s="3">
+        <v>2030087</v>
+      </c>
+      <c r="B39" s="1">
         <v>20200038</v>
       </c>
-      <c r="C39" s="2" t="s">
-        <v>4</v>
+      <c r="C39" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
-        <v>2022019</v>
-      </c>
-      <c r="B40" s="3">
+        <v>2030147</v>
+      </c>
+      <c r="B40" s="1">
         <v>20200039</v>
       </c>
-      <c r="C40" s="2" t="s">
-        <v>4</v>
+      <c r="C40" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>2022020</v>
       </c>
-      <c r="B41" s="3">
+      <c r="B41" s="1">
         <v>20200040</v>
       </c>
-      <c r="C41" s="2" t="s">
-        <v>4</v>
+      <c r="C41" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
-        <v>2022021</v>
-      </c>
-      <c r="B42" s="3">
+        <v>2030097</v>
+      </c>
+      <c r="B42" s="1">
         <v>20200041</v>
       </c>
-      <c r="C42" s="2" t="s">
-        <v>4</v>
+      <c r="C42" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
-        <v>2022024</v>
-      </c>
-      <c r="B43" s="3">
+        <v>2022030</v>
+      </c>
+      <c r="B43" s="1">
         <v>20200042</v>
       </c>
-      <c r="C43" s="2" t="s">
-        <v>4</v>
+      <c r="C43" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
-        <v>2022030</v>
-      </c>
-      <c r="B44" s="3">
+        <v>2030167</v>
+      </c>
+      <c r="B44" s="1">
         <v>20200043</v>
       </c>
-      <c r="C44" s="2" t="s">
-        <v>4</v>
+      <c r="C44" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
-        <v>2022031</v>
-      </c>
-      <c r="B45" s="3">
+        <v>2030227</v>
+      </c>
+      <c r="B45" s="1">
         <v>20200044</v>
       </c>
-      <c r="C45" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="1">
-        <v>2022035</v>
-      </c>
-      <c r="B46" s="3">
-        <v>20200045</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="1">
-        <v>2022036</v>
-      </c>
-      <c r="B47" s="3">
-        <v>20200046</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="1">
-        <v>2022038</v>
-      </c>
-      <c r="B48" s="3">
-        <v>20200047</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="1">
-        <v>2022041</v>
-      </c>
-      <c r="B49" s="3">
-        <v>20200048</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="1">
-        <v>2022042</v>
-      </c>
-      <c r="B50" s="3">
-        <v>20200049</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="1">
-        <v>2022045</v>
-      </c>
-      <c r="B51" s="3">
-        <v>20200050</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="1">
-        <v>2022047</v>
-      </c>
-      <c r="B52" s="3">
-        <v>20200051</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="1">
-        <v>2022048</v>
-      </c>
-      <c r="B53" s="3">
-        <v>20200052</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="1">
-        <v>2022050</v>
-      </c>
-      <c r="B54" s="3">
-        <v>20200053</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="1">
-        <v>2022523</v>
-      </c>
-      <c r="B55" s="3">
-        <v>20200054</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="1">
-        <v>2030069</v>
-      </c>
-      <c r="B56" s="3">
-        <v>20200055</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>4</v>
+      <c r="C45" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C58">
-    <sortCondition ref="B1:B58"/>
-  </sortState>
-  <conditionalFormatting sqref="A2:A56">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="B46:B56">
+    <cfRule type="duplicateValues" dxfId="12" priority="13"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A2:A8">
+    <cfRule type="duplicateValues" dxfId="11" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="12"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A9:A15">
+    <cfRule type="duplicateValues" dxfId="9" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A23:A29">
+    <cfRule type="duplicateValues" dxfId="7" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="8"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A16:A22">
+    <cfRule type="duplicateValues" dxfId="5" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="6"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A30:A36">
+    <cfRule type="duplicateValues" dxfId="3" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A37:A45">
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
